--- a/Planung/User Stories.xlsx
+++ b/Planung/User Stories.xlsx
@@ -12,8 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Daten" sheetId="2" r:id="rId2"/>
+    <sheet name="UserStories" sheetId="1" r:id="rId1"/>
+    <sheet name="Rollen" sheetId="4" r:id="rId2"/>
+    <sheet name="Cleancode" sheetId="3" r:id="rId3"/>
+    <sheet name="Daten" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="70">
   <si>
     <t>Userstories</t>
   </si>
@@ -39,9 +41,6 @@
     <t>Punkte</t>
   </si>
   <si>
-    <t>Zuständig</t>
-  </si>
-  <si>
     <t>Kategorie</t>
   </si>
   <si>
@@ -63,78 +62,15 @@
     <t>Funktion</t>
   </si>
   <si>
-    <t>Cédric Schweizer</t>
-  </si>
-  <si>
-    <t>Patrick Bauersfeld</t>
-  </si>
-  <si>
-    <t>Giannin Brandenberger</t>
-  </si>
-  <si>
-    <t>Lenny Johner</t>
-  </si>
-  <si>
-    <t>Thierry Beer</t>
-  </si>
-  <si>
-    <t>Michèle Habegger</t>
-  </si>
-  <si>
-    <t>Marcel Pfeuti</t>
-  </si>
-  <si>
-    <t>Erledigt</t>
-  </si>
-  <si>
     <t>In Arbeit</t>
   </si>
   <si>
-    <t>Verschoben</t>
-  </si>
-  <si>
-    <t>Fehlgeschlagen</t>
-  </si>
-  <si>
-    <t>Geplant</t>
-  </si>
-  <si>
-    <t>Ausstehend</t>
-  </si>
-  <si>
-    <t>Fundamental wichtig</t>
-  </si>
-  <si>
-    <t>Kritisch</t>
-  </si>
-  <si>
-    <t>Priorisiert</t>
-  </si>
-  <si>
-    <t>Trivial</t>
-  </si>
-  <si>
-    <t>Unbedeutend</t>
-  </si>
-  <si>
-    <t>Verschieblich</t>
-  </si>
-  <si>
     <t>Unbestimmt</t>
   </si>
   <si>
-    <t>Hugo Lucca</t>
-  </si>
-  <si>
     <t>Anzahl Stories</t>
   </si>
   <si>
-    <t>Als Entwickler möchte ich eine Funktion, die es  mir erlaubt, eine Audiodatei zu jeder Karte aufzunehmen, damit ich auch die Aussprache lernen kann.</t>
-  </si>
-  <si>
-    <t>Als Lernender möchte ich eine Funktion, die eine Animation auslöst, die Karten bei klick dreht um die Lösung zu sehen.</t>
-  </si>
-  <si>
     <t>Als Coach möchte ich eine Druckfunktion, welche mir erlaubt meine Karteien auch ohne ein Gerät lernen zu können, damit können auch Leute welche lieber ohne Gerät lernen von dieser Software profitieren.</t>
   </si>
   <si>
@@ -147,15 +83,6 @@
     <t>Sonstiges</t>
   </si>
   <si>
-    <t>Alle</t>
-  </si>
-  <si>
-    <t>Als Opensource-Spezialist möchte ich ein auf Github veröffentlichtes Projekt welches dort unter einer Beer und Chocolate Lizenz verfügbar ist, um das Programm individuel gestaltbar zu machen.</t>
-  </si>
-  <si>
-    <t>Ich als Java-Experte möchte das der Fortschritt auf mehreren Geräten gespeichert wird damit ich von überall auf meine Daten zugreifen kann und mit den gleichen Daten lernen kann.</t>
-  </si>
-  <si>
     <t>Als Lernender möchte ich ein klar strukturiertes Programm, dass einfach geupdatet werden kann, um erweiterungen einfach installieren zu können.</t>
   </si>
   <si>
@@ -171,12 +98,6 @@
     <t>Datenbank</t>
   </si>
   <si>
-    <t>Als Entwicklerin/Designverantwortliche möchte ich, dass die verschiedenen Karteien mit den Kärtchen vom User markiert werden können, damit man die Gesuchte schnell findet.</t>
-  </si>
-  <si>
-    <t>Als Coach möchte ich eine Funktion, um Karten korrigieren/Verbessern zu können um die Qualität zu steigern</t>
-  </si>
-  <si>
     <t>Als Entwickler will ich unbedingt, dass die Applikation fehlerfrei funktioniert um Kritiken sowie unzufriedene Kunden zu vermeiden.</t>
   </si>
   <si>
@@ -189,21 +110,6 @@
     <t>Als Lernender möchte ich eine Fragewettkampfmöglichkeit, um mich direkt mit anderen Spielern zu messen und um den Lernantrieb aufrechtzuerhalten und um mich mit anderen Benutzern zu vergleichen.</t>
   </si>
   <si>
-    <t>Ich als grosser Musikfan möchte ich Hintergrundmusik haben, bei der man die Lautstärke einstellen kann, damit das Lernen nicht so langweilig ist.</t>
-  </si>
-  <si>
-    <t>Als Lernender möchte ich zur Belohnung Spiele spielen können, um die Motivation zu steigern.</t>
-  </si>
-  <si>
-    <t>Ich als Lernender möchte viele Einstellungen haben, um meine App zu personalisieren.</t>
-  </si>
-  <si>
-    <t>Ich als Lernender möchte eine Hilfefunktion(MEMES) bei den Karten haben, um das lernerlebniss zu verbessern.</t>
-  </si>
-  <si>
-    <t>Ich als Coach möchte die Lernkarteien verifizieren können</t>
-  </si>
-  <si>
     <t>Bemerkungen</t>
   </si>
   <si>
@@ -213,7 +119,124 @@
     <t>1P = 4h</t>
   </si>
   <si>
-    <t>Dauerhaft</t>
+    <t>Ich als Entwickler möchte über die ganze App verteilt ein einheitliches Design haben, damit es stimmig aussieht</t>
+  </si>
+  <si>
+    <t>Als Lernender möchte ich zur Belohnung Spiele spielen können, um die Motivation zu steigern. (Spiele portieren)</t>
+  </si>
+  <si>
+    <t>Ich als Java-Lernender möchte das der Fortschritt auf mehreren Geräten gespeichert wird damit ich von überall auf meine Daten zugreifen kann und mit den gleichen Daten lernen kann.</t>
+  </si>
+  <si>
+    <t>Ready</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Rolle</t>
+  </si>
+  <si>
+    <t>Cédric</t>
+  </si>
+  <si>
+    <t>Giannin</t>
+  </si>
+  <si>
+    <t>Thierry</t>
+  </si>
+  <si>
+    <t>Marcel</t>
+  </si>
+  <si>
+    <t>Lenny</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>Michèle</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>Sprint backlog</t>
+  </si>
+  <si>
+    <t>Broduct backlog</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>Scrum Master</t>
+  </si>
+  <si>
+    <t>Product Owner</t>
+  </si>
+  <si>
+    <t>Code Master</t>
+  </si>
+  <si>
+    <t>Github Master</t>
+  </si>
+  <si>
+    <t>Master User</t>
+  </si>
+  <si>
+    <t>Productbacklog Master Assistant</t>
+  </si>
+  <si>
+    <t>Sprint Backlog Sensei</t>
+  </si>
+  <si>
+    <t>Dr. Master of the universe</t>
+  </si>
+  <si>
+    <t>Als Lernender möchte ich eine Funktion, die es mir erlaubt, eine Audiodatei abzuspielen, damit ich auch die Aussprache lernen kann.</t>
+  </si>
+  <si>
+    <t>Als Lernender möchte ich eine Funktion, die es  mir erlaubt, eine Audiodatei zu jeder Karte aufzunehmen, damit ich auch die Aussprache lernen kann.</t>
+  </si>
+  <si>
+    <t>Als Lernender möchte ich eine Funktion, die eine Animation auslöst, die Karten bei klick dreht um die Lösung zu sehen, damit ich mich versichern kann, dass ich richtig lag.</t>
+  </si>
+  <si>
+    <t>Ich als Entwickler möchte die Hilfefunktion portieren und verbessern…</t>
+  </si>
+  <si>
+    <t>Ich als Entwickler möchte das Menu portieren und anpassen…</t>
+  </si>
+  <si>
+    <t>Als Entwickler möchte ich, dass die verschiedenen Karteien mit den Kärtchen vom User mit einem Stern markiert werden können, damit man auch nur die Markierten lernen kann.</t>
+  </si>
+  <si>
+    <t>Als User möchte ich eine Funktion, um Karten korrigieren/Verbessern zu können um die Qualität zu steigern</t>
+  </si>
+  <si>
+    <t>Ich als Lernender möchte Hintergrundmusik haben, bei der man die Lautstärke einstellen kann, damit das Lernen nicht so langweilig ist.</t>
+  </si>
+  <si>
+    <t>Ich als Lernender möchte mindestens 3 Designmöglichkeiten haben, um meine App zu personalisieren.</t>
+  </si>
+  <si>
+    <t>Ich als Lernender möchte eine Hilfefunktion(MEMES, Tipps) bei den Karten haben, um das lernerlebniss zu verbessern.</t>
+  </si>
+  <si>
+    <t>Ich als Coach möchte die Lernkarteien verifizieren können, damit man die richtigen Inhalte Lernt.</t>
+  </si>
+  <si>
+    <t>Ich als Entwickler möchte Quizlet von der älteren Version portieren, damit ich das Rad nicht von neuen erfinden muss.</t>
+  </si>
+  <si>
+    <t>Ich als Entwickler möchte die Datenbank portieren und anpassen, damit ich das Rad nicht von neuen erfinden muss.</t>
+  </si>
+  <si>
+    <t>Ich als Entwickler möchte die globals.Envirement &amp; globals portieren und anpassen, damit ich das Rad nicht von neuen erfinden muss.</t>
+  </si>
+  <si>
+    <t>Ich als Entwickler möchte die Datenstruktur und Lernfunktionen portieren und verbessern, damit ich das Rad nicht von neuen erfinden muss.</t>
   </si>
 </sst>
 </file>
@@ -259,7 +282,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,18 +291,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="9" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -288,17 +317,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -352,15 +370,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -377,17 +386,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -422,83 +420,101 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="18">
     <dxf>
       <font>
         <color theme="0"/>
@@ -511,53 +527,73 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <color theme="0"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -721,32 +757,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A2:G23" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <autoFilter ref="A2:G23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A2:F25" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A2:F25"/>
   <sortState ref="A3:G5">
     <sortCondition ref="D2"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Nr." dataDxfId="8">
+  <tableColumns count="6">
+    <tableColumn id="1" name="Nr." dataDxfId="13">
       <calculatedColumnFormula>IF(B3="","",ROW(Tabelle3[[#This Row],[Story]])-2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Story" dataDxfId="7"/>
-    <tableColumn id="3" name="Kategorie" dataDxfId="6"/>
-    <tableColumn id="4" name="Punkte" dataDxfId="5"/>
-    <tableColumn id="5" name="Dringlichkeit" dataDxfId="4"/>
-    <tableColumn id="6" name="Status" dataDxfId="3"/>
-    <tableColumn id="7" name="Zuständig" dataDxfId="2"/>
+    <tableColumn id="2" name="Story" dataDxfId="12"/>
+    <tableColumn id="3" name="Kategorie" dataDxfId="11"/>
+    <tableColumn id="4" name="Punkte" dataDxfId="10"/>
+    <tableColumn id="5" name="Dringlichkeit" dataDxfId="9"/>
+    <tableColumn id="6" name="Status" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:D10" totalsRowShown="0">
-  <autoFilter ref="A1:D10"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:B9" totalsRowShown="0">
+  <autoFilter ref="A1:B9"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Rolle"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:C10" totalsRowShown="0">
+  <autoFilter ref="A1:C10"/>
+  <tableColumns count="3">
     <tableColumn id="1" name="Kategorie"/>
-    <tableColumn id="2" name="Zuständig" dataDxfId="1"/>
     <tableColumn id="3" name="Status"/>
     <tableColumn id="4" name="Dringlichkeit"/>
   </tableColumns>
@@ -1017,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J108"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1031,544 +1076,575 @@
     <col min="4" max="4" width="8.88671875" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
     <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="G2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+    </row>
+    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <f>IF(B3="","",ROW(Tabelle3[[#This Row],[Story]])-2)</f>
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="9">
-        <v>3</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="15">
+      <c r="B3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="9">
         <f>COUNTA(Tabelle3[Story])</f>
-        <v>21</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+        <v>23</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <f>IF(B4="","",ROW(Tabelle3[[#This Row],[Story]])-2)</f>
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="9">
+      <c r="B4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
         <v>2</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="F4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <f>IF(B5="","",ROW(Tabelle3[[#This Row],[Story]])-2)</f>
         <v>3</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="11">
-        <v>2</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="B5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <f>IF(B6="","",ROW(Tabelle3[[#This Row],[Story]])-2)</f>
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="9">
-        <v>4</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <f>IF(B7="","",ROW(Tabelle3[[#This Row],[Story]])-2)</f>
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <f>IF(B8="","",ROW(Tabelle3[[#This Row],[Story]])-2)</f>
         <v>6</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="B8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
         <f>IF(B9="","",ROW(Tabelle3[[#This Row],[Story]])-2)</f>
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="9">
-        <v>4</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="D9" s="6">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
         <f>IF(B10="","",ROW(Tabelle3[[#This Row],[Story]])-2)</f>
         <v>8</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="B10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
         <f>IF(B11="","",ROW(Tabelle3[[#This Row],[Story]])-2)</f>
         <v>9</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
+      <c r="C11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
         <f>IF(B12="","",ROW(Tabelle3[[#This Row],[Story]])-2)</f>
         <v>10</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="11">
-        <v>1</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
+      <c r="B12" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2</v>
+      </c>
+      <c r="E12" s="8">
+        <v>3</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
         <f>IF(B13="","",ROW(Tabelle3[[#This Row],[Story]])-2)</f>
         <v>11</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11">
-        <v>2</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
+      <c r="B13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="27">
+        <v>5</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
         <f>IF(B14="","",ROW(Tabelle3[[#This Row],[Story]])-2)</f>
         <v>12</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11">
-        <v>2</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
+      <c r="B14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
         <f>IF(B15="","",ROW(Tabelle3[[#This Row],[Story]])-2)</f>
         <v>13</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="11">
+      <c r="B15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6">
+        <v>6</v>
+      </c>
+      <c r="E15" s="8">
         <v>2</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
+      <c r="F15" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
         <f>IF(B16="","",ROW(Tabelle3[[#This Row],[Story]])-2)</f>
         <v>14</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
+      <c r="B16" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="6">
+        <v>4</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
         <f>IF(B17="","",ROW(Tabelle3[[#This Row],[Story]])-2)</f>
         <v>15</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
+      <c r="B17" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="6">
+        <v>4</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
         <f>IF(B18="","",ROW(Tabelle3[[#This Row],[Story]])-2)</f>
         <v>16</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="25" t="str">
-        <f>"4-6"</f>
-        <v>4-6</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
+      <c r="B18" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>2</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
         <f>IF(B19="","",ROW(Tabelle3[[#This Row],[Story]])-2)</f>
         <v>17</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="11">
-        <v>1</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
+      <c r="B19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="6">
+        <v>8</v>
+      </c>
+      <c r="E19" s="8">
+        <v>5</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
         <f>IF(B20="","",ROW(Tabelle3[[#This Row],[Story]])-2)</f>
         <v>18</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="11" t="str">
-        <f>"4-8"</f>
-        <v>4-8</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
+      <c r="B20" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6">
+        <v>6</v>
+      </c>
+      <c r="E20" s="8">
+        <v>5</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
         <f>IF(B21="","",ROW(Tabelle3[[#This Row],[Story]])-2)</f>
         <v>19</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="11">
-        <v>4</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>5</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
         <f>IF(B22="","",ROW(Tabelle3[[#This Row],[Story]])-2)</f>
         <v>20</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="11">
-        <v>4</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
+      <c r="B22" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="6">
+        <v>3</v>
+      </c>
+      <c r="E22" s="8">
+        <v>5</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
         <f>IF(B23="","",ROW(Tabelle3[[#This Row],[Story]])-2)</f>
         <v>21</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6">
+        <v>7</v>
+      </c>
+      <c r="E23" s="8">
+        <v>5</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <f>IF(B24="","",ROW(Tabelle3[[#This Row],[Story]])-2)</f>
+        <v>22</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="11">
-        <v>1</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" t="str">
-        <f t="shared" ref="A105:A108" si="0">IF(B105="","",ROW(A103))</f>
+      <c r="C24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="6">
+        <v>4</v>
+      </c>
+      <c r="E24" s="8">
+        <v>5</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <f>IF(B25="","",ROW(Tabelle3[[#This Row],[Story]])-2)</f>
+        <v>23</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="6">
+        <v>4</v>
+      </c>
+      <c r="E25" s="8">
+        <v>5</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="str">
+        <f t="shared" ref="A100:A103" si="0">IF(B100="","",ROW(A98))</f>
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" t="str">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" t="str">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" t="str">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F23">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="F3:F25">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"Fehlgeschlagen"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1579,30 +1655,24 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Daten!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C23</xm:sqref>
+          <xm:sqref>C3:C25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Daten!$D$2:$D$8</xm:f>
+            <xm:f>Daten!$B$2:$B$8</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E23</xm:sqref>
+          <xm:sqref>F3:F25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Daten!$C$2:$C$8</xm:f>
+            <xm:f>Daten!$C$2:$C$10</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F23</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Daten!$B$2:$B$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>G3:G23</xm:sqref>
+          <xm:sqref>E3:E25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1612,144 +1682,347 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B9">
+    <sortCondition ref="B9"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="69.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="e">
+        <f>IF(B1="","",ROW(Tabelle3[[#This Row],[Story]])-2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="e">
+        <f>IF(B2="","",ROW(Tabelle3[[#This Row],[Story]])-2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="22">
+        <f>IF(B3="","",ROW(Tabelle3[[#This Row],[Story]])-2)</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="25">
+        <f>IF(B4="","",ROW(Tabelle3[[#This Row],[Story]])-2)</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
+        <f>IF(B5="","",ROW(Tabelle3[[#This Row],[Story]])-2)</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"Fehlgeschlagen"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"Fehlgeschlagen"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F4">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"Fehlgeschlagen"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Fehlgeschlagen"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Daten!$C$2:$C$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Daten!$B$2:$B$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Daten!$A$2:$A$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
